--- a/docs/data/shared_data/census_data/2020censusNY.xlsx
+++ b/docs/data/shared_data/census_data/2020censusNY.xlsx
@@ -574,7 +574,12 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d89e6d2-97cb-4696-93f9-048dc6744ea0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -588,9 +593,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFD4928539AFD0458D6C74DA73BCA243" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16256fe729ed864b3ce95074c843195">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d89e6d2-97cb-4696-93f9-048dc6744ea0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29984377abd0cf9d489877bd007a8a00" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFD4928539AFD0458D6C74DA73BCA243" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d4c7b6ddbb5cd23a3a91160bfb6c10">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d89e6d2-97cb-4696-93f9-048dc6744ea0" xmlns:ns3="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2eb9095241c35cf7c3f2c0285cc91408" ns2:_="" ns3:_="">
     <xsd:import namespace="5d89e6d2-97cb-4696-93f9-048dc6744ea0"/>
+    <xsd:import namespace="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -599,6 +605,11 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -618,6 +629,45 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b91a9775-3525-4bf8-b88d-b7eef9d67d4b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7b9d809a-674f-42d4-bb75-fc65142ddb83}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -744,19 +794,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C030A3F-9DC5-4887-8152-8DC286AFA074}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5d89e6d2-97cb-4696-93f9-048dc6744ea0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DBC17CD-2852-45CC-98BD-4BC52AD58C64}"/>
 </file>
--- a/docs/data/shared_data/census_data/2020censusNY.xlsx
+++ b/docs/data/shared_data/census_data/2020censusNY.xlsx
@@ -574,12 +574,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d89e6d2-97cb-4696-93f9-048dc6744ea0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
@@ -593,10 +588,9 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFD4928539AFD0458D6C74DA73BCA243" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d4c7b6ddbb5cd23a3a91160bfb6c10">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d89e6d2-97cb-4696-93f9-048dc6744ea0" xmlns:ns3="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2eb9095241c35cf7c3f2c0285cc91408" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFD4928539AFD0458D6C74DA73BCA243" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16256fe729ed864b3ce95074c843195">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d89e6d2-97cb-4696-93f9-048dc6744ea0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29984377abd0cf9d489877bd007a8a00" ns2:_="">
     <xsd:import namespace="5d89e6d2-97cb-4696-93f9-048dc6744ea0"/>
-    <xsd:import namespace="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -605,11 +599,6 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -629,45 +618,6 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b91a9775-3525-4bf8-b88d-b7eef9d67d4b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7b9d809a-674f-42d4-bb75-fc65142ddb83}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b45172e6-bdb6-4f3f-a8e5-2d0d4f86e50c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -794,5 +744,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DBC17CD-2852-45CC-98BD-4BC52AD58C64}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C030A3F-9DC5-4887-8152-8DC286AFA074}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d89e6d2-97cb-4696-93f9-048dc6744ea0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>